--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/073a2ad6e5228e04/111/dev/appv1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svenf\Desktop\beer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{906D9557-7CE2-4D6A-889E-AB2DF72FC869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9329B01E-7461-4560-BD64-2A15E182CC13}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210E3BB8-F015-4901-A92C-E314A3ED6F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2DD1CE69-72EF-4E41-BF97-EBBFD7C1A4B7}"/>
+    <workbookView xWindow="-28920" yWindow="-6840" windowWidth="29040" windowHeight="15840" xr2:uid="{2DD1CE69-72EF-4E41-BF97-EBBFD7C1A4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="12">
   <si>
     <t>Contents</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>PackageDate</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -429,23 +432,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70113E64-AF6D-4CB7-96FB-179FCCAB6144}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -467,8 +470,11 @@
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44175</v>
       </c>
@@ -490,8 +496,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44175</v>
       </c>
@@ -513,8 +522,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44175</v>
       </c>
@@ -536,8 +548,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44175</v>
       </c>
@@ -559,8 +574,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44179</v>
       </c>
@@ -582,8 +600,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44179</v>
       </c>
@@ -605,8 +626,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44179</v>
       </c>
@@ -628,8 +652,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44179</v>
       </c>
@@ -651,8 +678,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44179</v>
       </c>
@@ -674,8 +704,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44179</v>
       </c>
@@ -697,8 +730,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44179</v>
       </c>
@@ -720,8 +756,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44179</v>
       </c>
@@ -743,8 +782,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44179</v>
       </c>
@@ -766,8 +808,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44179</v>
       </c>
@@ -789,8 +834,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44179</v>
       </c>
@@ -812,8 +860,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44179</v>
       </c>
@@ -835,8 +886,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44179</v>
       </c>
@@ -858,8 +912,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44179</v>
       </c>
@@ -881,8 +938,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44179</v>
       </c>
@@ -904,8 +964,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44179</v>
       </c>
@@ -927,8 +990,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44179</v>
       </c>
@@ -950,8 +1016,11 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44179</v>
       </c>
@@ -973,8 +1042,11 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44179</v>
       </c>
@@ -996,8 +1068,11 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44179</v>
       </c>
@@ -1019,8 +1094,11 @@
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44179</v>
       </c>
@@ -1042,8 +1120,11 @@
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44179</v>
       </c>
@@ -1065,8 +1146,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44179</v>
       </c>
@@ -1088,8 +1172,11 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44179</v>
       </c>
@@ -1111,8 +1198,11 @@
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44179</v>
       </c>
@@ -1134,8 +1224,11 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44179</v>
       </c>
@@ -1157,8 +1250,11 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44179</v>
       </c>
@@ -1180,8 +1276,11 @@
       <c r="G32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44179</v>
       </c>
@@ -1203,8 +1302,11 @@
       <c r="G33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44179</v>
       </c>
@@ -1226,8 +1328,11 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44179</v>
       </c>
@@ -1249,8 +1354,11 @@
       <c r="G35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44179</v>
       </c>
@@ -1272,8 +1380,11 @@
       <c r="G36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44179</v>
       </c>
@@ -1295,8 +1406,11 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44179</v>
       </c>
@@ -1318,8 +1432,11 @@
       <c r="G38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44179</v>
       </c>
@@ -1341,8 +1458,11 @@
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44179</v>
       </c>
@@ -1364,8 +1484,11 @@
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44179</v>
       </c>
@@ -1387,8 +1510,11 @@
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44179</v>
       </c>
@@ -1410,8 +1536,11 @@
       <c r="G42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44179</v>
       </c>
@@ -1433,8 +1562,11 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44179</v>
       </c>
@@ -1456,8 +1588,11 @@
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44179</v>
       </c>
@@ -1479,8 +1614,11 @@
       <c r="G45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44179</v>
       </c>
@@ -1502,8 +1640,11 @@
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44179</v>
       </c>
@@ -1525,8 +1666,11 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44179</v>
       </c>
@@ -1548,8 +1692,11 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44179</v>
       </c>
@@ -1571,8 +1718,11 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44179</v>
       </c>
@@ -1594,8 +1744,11 @@
       <c r="G50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44179</v>
       </c>
@@ -1617,8 +1770,11 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44179</v>
       </c>
@@ -1640,8 +1796,11 @@
       <c r="G52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44179</v>
       </c>
@@ -1663,8 +1822,11 @@
       <c r="G53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44179</v>
       </c>
@@ -1686,8 +1848,11 @@
       <c r="G54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44179</v>
       </c>
@@ -1709,8 +1874,11 @@
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44180</v>
       </c>
@@ -1732,8 +1900,11 @@
       <c r="G56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44180</v>
       </c>
@@ -1755,8 +1926,11 @@
       <c r="G57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44180</v>
       </c>
@@ -1778,8 +1952,11 @@
       <c r="G58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44180</v>
       </c>
@@ -1801,8 +1978,11 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44180</v>
       </c>
@@ -1824,8 +2004,11 @@
       <c r="G60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44180</v>
       </c>
@@ -1847,8 +2030,11 @@
       <c r="G61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44180</v>
       </c>
@@ -1870,8 +2056,11 @@
       <c r="G62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44180</v>
       </c>
@@ -1893,8 +2082,11 @@
       <c r="G63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44180</v>
       </c>
@@ -1916,8 +2108,11 @@
       <c r="G64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44180</v>
       </c>
@@ -1939,8 +2134,11 @@
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44180</v>
       </c>
@@ -1962,8 +2160,11 @@
       <c r="G66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44180</v>
       </c>
@@ -1985,8 +2186,11 @@
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44180</v>
       </c>
@@ -2008,8 +2212,11 @@
       <c r="G68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44180</v>
       </c>
@@ -2031,8 +2238,11 @@
       <c r="G69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44180</v>
       </c>
@@ -2054,8 +2264,11 @@
       <c r="G70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44180</v>
       </c>
@@ -2077,8 +2290,11 @@
       <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44180</v>
       </c>
@@ -2100,8 +2316,11 @@
       <c r="G72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44180</v>
       </c>
@@ -2123,8 +2342,11 @@
       <c r="G73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44180</v>
       </c>
@@ -2146,8 +2368,11 @@
       <c r="G74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44180</v>
       </c>
@@ -2169,8 +2394,11 @@
       <c r="G75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44180</v>
       </c>
@@ -2192,8 +2420,11 @@
       <c r="G76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44180</v>
       </c>
@@ -2215,8 +2446,11 @@
       <c r="G77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44180</v>
       </c>
@@ -2238,8 +2472,11 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44180</v>
       </c>
@@ -2261,8 +2498,11 @@
       <c r="G79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44180</v>
       </c>
@@ -2284,8 +2524,11 @@
       <c r="G80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44180</v>
       </c>
@@ -2307,8 +2550,11 @@
       <c r="G81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44180</v>
       </c>
@@ -2330,8 +2576,11 @@
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44180</v>
       </c>
@@ -2353,8 +2602,11 @@
       <c r="G83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44180</v>
       </c>
@@ -2376,8 +2628,11 @@
       <c r="G84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44180</v>
       </c>
@@ -2399,8 +2654,11 @@
       <c r="G85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44180</v>
       </c>
@@ -2422,8 +2680,11 @@
       <c r="G86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44180</v>
       </c>
@@ -2445,8 +2706,11 @@
       <c r="G87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44180</v>
       </c>
@@ -2468,8 +2732,11 @@
       <c r="G88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44180</v>
       </c>
@@ -2491,8 +2758,11 @@
       <c r="G89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44180</v>
       </c>
@@ -2514,8 +2784,11 @@
       <c r="G90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44180</v>
       </c>
@@ -2537,8 +2810,11 @@
       <c r="G91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44180</v>
       </c>
@@ -2560,8 +2836,11 @@
       <c r="G92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44180</v>
       </c>
@@ -2583,8 +2862,11 @@
       <c r="G93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44180</v>
       </c>
@@ -2606,8 +2888,11 @@
       <c r="G94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44180</v>
       </c>
@@ -2629,8 +2914,11 @@
       <c r="G95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44180</v>
       </c>
@@ -2652,8 +2940,11 @@
       <c r="G96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44180</v>
       </c>
@@ -2675,8 +2966,11 @@
       <c r="G97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44180</v>
       </c>
@@ -2698,8 +2992,11 @@
       <c r="G98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44180</v>
       </c>
@@ -2721,8 +3018,11 @@
       <c r="G99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44180</v>
       </c>
@@ -2744,8 +3044,11 @@
       <c r="G100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44180</v>
       </c>
@@ -2765,6 +3068,9 @@
         <v>5</v>
       </c>
       <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
         <v>1</v>
       </c>
     </row>
